--- a/ipdo/Preenchimento IPDO.xlsx
+++ b/ipdo/Preenchimento IPDO.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automações python\ipdo\ipdo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automacoes_py\ipdo\ipdo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED8E14-4449-4A4F-8F00-12A19CD0157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5669378-0E8D-4299-8477-F830BE71DF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2610" windowWidth="21810" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22956" yWindow="828" windowWidth="21816" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +955,30 @@
         <v>14497</v>
       </c>
     </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
